--- a/Uncertainties_Dynamic_Planning/plot_distribution_lognormal_mu5_sigma1/R10/Intermodal_EGS_data_dynamic_lognormal_mu5_sigma1_table63.xlsx
+++ b/Uncertainties_Dynamic_Planning/plot_distribution_lognormal_mu5_sigma1/R10/Intermodal_EGS_data_dynamic_lognormal_mu5_sigma1_table63.xlsx
@@ -6169,7 +6169,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[179, 220]</t>
+          <t>[179, 888]</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -6198,7 +6198,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[179, 220]</t>
+          <t>[179, 888]</t>
         </is>
       </c>
       <c r="G3" t="n">
